--- a/other/input/2021_wqx_data/summer_2021_wqx_data/SGS/ALS_Data_Results_Summer_2021.xlsx
+++ b/other/input/2021_wqx_data/summer_2021_wqx_data/SGS/ALS_Data_Results_Summer_2021.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report\other\input\2021_wqx_data\summer_2021_wqx_data\SGS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="20115" windowHeight="12345"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="69">
   <si>
     <t>ALS Sampling Results</t>
   </si>
@@ -226,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,6 +304,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -346,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,6 +2786,9 @@
       <c r="C78" t="s">
         <v>17</v>
       </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
       <c r="E78">
         <v>1.21</v>
       </c>
